--- a/front/src/lib/excel/template.xlsx
+++ b/front/src/lib/excel/template.xlsx
@@ -46,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -54,13 +54,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -349,35 +387,43 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <firstHeader>Hello Exceljs</firstHeader>
     <firstFooter>Hello World</firstFooter>
